--- a/명령어 리스트.xlsx
+++ b/명령어 리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForcsPC-0127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\pokemongo\pogoBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17B475-7098-4FFF-B432-35FCDBB5ECBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D62B72-007D-4739-B2F1-DC38B9B09E69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="5475" windowWidth="23640" windowHeight="15360" xr2:uid="{6DBCE7BF-8190-496A-B38C-7A828E6D0713}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6DBCE7BF-8190-496A-B38C-7A828E6D0713}"/>
   </bookViews>
   <sheets>
     <sheet name="명령어" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="249">
   <si>
     <t>생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -626,10 +626,6 @@
   </si>
   <si>
     <t>ㅁ리서치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게 하지;; 작은분수 연타 1번 2번 참석?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1099,6 +1095,44 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> 앞에 "도리야" 혹은 "ㅁ"을 써야만 반응하는 명령어들</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시간] [제보 내용] [제보]
+[시간] [제보 내용] [제보]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1시 작은분수 5성 제보
+1시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK KR Medium"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 20분 우성정문 5성 제보</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>어떻게 하지;;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK KR Medium"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 일단 지금은 각각 참석한다</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1206,7 +1240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1230,11 +1264,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1242,13 +1287,157 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1260,63 +1449,147 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1633,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9695293-D9EA-4DFC-89D7-922DD099DD2E}">
-  <dimension ref="B2:F95"/>
+  <dimension ref="B1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1649,1189 +1922,1238 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="26"/>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="26"/>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="26"/>
+      <c r="C32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="26"/>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+      <c r="C34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="26"/>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="26"/>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="26"/>
+      <c r="C41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="26"/>
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="26"/>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+    </row>
+    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F56" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F62" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="10" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="26"/>
+      <c r="C64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="26"/>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="45"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="26"/>
+      <c r="C66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="27"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+      <c r="C67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+      <c r="C68" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+      <c r="C69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="26"/>
+      <c r="C70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+      <c r="C71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="26"/>
+      <c r="C73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="26"/>
+      <c r="C75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="26"/>
+      <c r="C76" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="26"/>
+      <c r="C77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="26"/>
+      <c r="C80" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="26"/>
+      <c r="C82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="26"/>
+      <c r="C84" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="26"/>
+      <c r="C85" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="44"/>
+      <c r="C87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
+      <c r="C88" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="44"/>
+      <c r="C90" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" s="45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="15"/>
-      <c r="C69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="15"/>
-      <c r="C73" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="15"/>
-      <c r="C75" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="15"/>
-      <c r="C77" s="5" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="44"/>
+      <c r="C91" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="44"/>
+      <c r="C92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="44"/>
+      <c r="C93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="44"/>
+      <c r="C94" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
-      <c r="C80" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="15"/>
-      <c r="C82" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="15"/>
-      <c r="C84" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="15"/>
-      <c r="C85" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="16"/>
-      <c r="C87" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="16"/>
-      <c r="C88" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="16"/>
-      <c r="C90" s="6" t="s">
+      <c r="D94" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="46"/>
+      <c r="C95" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="16"/>
-      <c r="C91" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="16"/>
-      <c r="C92" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="16"/>
-      <c r="C93" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="16"/>
-      <c r="C94" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="16"/>
-      <c r="C95" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B51:F53"/>
     <mergeCell ref="B2:F4"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B81:B82"/>
@@ -2847,6 +3169,16 @@
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B51:F53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
